--- a/biology/Biochimie/ADN_polymérase_epsilon/ADN_polymérase_epsilon.xlsx
+++ b/biology/Biochimie/ADN_polymérase_epsilon/ADN_polymérase_epsilon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rase_epsilon</t>
+          <t>ADN_polymérase_epsilon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN polymérase ε, ou pol ε, est une ADN polymérase présente chez les eucaryotes et qui intervient dans les processus de réplication de l'ADN et de réparation de l'ADN[1]. Cette enzyme est constituée de quatre sous-unités : POLE, POLE2, POLE3 et POLE4 ; la sous-unité POLE est la sous-unité catalytique centrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN polymérase ε, ou pol ε, est une ADN polymérase présente chez les eucaryotes et qui intervient dans les processus de réplication de l'ADN et de réparation de l'ADN. Cette enzyme est constituée de quatre sous-unités : POLE, POLE2, POLE3 et POLE4 ; la sous-unité POLE est la sous-unité catalytique centrale.
 </t>
         </is>
       </c>
